--- a/doc/外部設計/04_外部設計書_メガネのやばいシステム屋さん.xlsx
+++ b/doc/外部設計/04_外部設計書_メガネのやばいシステム屋さん.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2D4F20D-936F-4371-BA43-CBE9EC6F4F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C92462-41D1-4064-A6A9-BB4A4FE7DF7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ホーム" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="205">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -872,34 +872,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>DBの予定マスタに入力した予定(予定名、日時、場所、備考)が挿入される</t>
-    <rPh sb="3" eb="5">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ヨテイメイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バショ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ソウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>予定名が10文字を超えた際は「10文字以内で入力してください」のエラーメッセージを出す</t>
     <rPh sb="0" eb="3">
       <t>ヨテイメイ</t>
@@ -1091,13 +1063,6 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>片平</t>
-    <rPh sb="0" eb="2">
-      <t>カタヒラ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1814,6 +1779,56 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>DBの予定マスタに入力した予定(予定名、日時、場所、備考,ユーザID)が挿入される</t>
+    <rPh sb="3" eb="5">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ヨテイメイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>syuudeen</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>片平健人</t>
+    <rPh sb="0" eb="2">
+      <t>カタヒラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケント</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>textarea</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2251,6 +2266,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2308,6 +2326,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2320,14 +2341,8 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2436,8 +2451,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3221970" y="1513951"/>
-          <a:ext cx="3596828" cy="4890913"/>
+          <a:off x="3214914" y="1497488"/>
+          <a:ext cx="3580365" cy="4829765"/>
           <a:chOff x="1444509" y="758418"/>
           <a:chExt cx="2407626" cy="3752935"/>
         </a:xfrm>
@@ -3355,8 +3370,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3465830" y="1384300"/>
-          <a:ext cx="2922270" cy="4692650"/>
+          <a:off x="3498850" y="1384300"/>
+          <a:ext cx="2952750" cy="4692650"/>
           <a:chOff x="18073497" y="5307872"/>
           <a:chExt cx="2643483" cy="3852465"/>
         </a:xfrm>
@@ -4749,8 +4764,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3093800" y="1169830"/>
-          <a:ext cx="3186768" cy="5215049"/>
+          <a:off x="3156567" y="1188415"/>
+          <a:ext cx="3245458" cy="5298684"/>
           <a:chOff x="18056620" y="758938"/>
           <a:chExt cx="2626196" cy="3910104"/>
         </a:xfrm>
@@ -7067,8 +7082,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3108261" y="1241120"/>
-          <a:ext cx="3878096" cy="5669592"/>
+          <a:off x="3170226" y="1227587"/>
+          <a:ext cx="3961769" cy="5604184"/>
           <a:chOff x="22637452" y="653712"/>
           <a:chExt cx="2680177" cy="3821446"/>
         </a:xfrm>
@@ -9122,8 +9137,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3337279" y="1849730"/>
-          <a:ext cx="3431351" cy="4815417"/>
+          <a:off x="3321992" y="1828563"/>
+          <a:ext cx="3416064" cy="4756621"/>
           <a:chOff x="4615647" y="5354217"/>
           <a:chExt cx="2629192" cy="3912110"/>
         </a:xfrm>
@@ -10138,8 +10153,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1842769" y="1651000"/>
-          <a:ext cx="2823212" cy="4584700"/>
+          <a:off x="1860549" y="1651000"/>
+          <a:ext cx="2851152" cy="4584700"/>
           <a:chOff x="8063043" y="708352"/>
           <a:chExt cx="2629775" cy="3920286"/>
         </a:xfrm>
@@ -11236,8 +11251,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5608320" y="1257300"/>
-          <a:ext cx="2470150" cy="2870200"/>
+          <a:off x="5664200" y="1257300"/>
+          <a:ext cx="2495550" cy="2870200"/>
           <a:chOff x="8048880" y="5298744"/>
           <a:chExt cx="2634008" cy="3880580"/>
         </a:xfrm>
@@ -11981,8 +11996,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5614670" y="4406901"/>
-          <a:ext cx="2508250" cy="2571749"/>
+          <a:off x="5670550" y="4406901"/>
+          <a:ext cx="2533650" cy="2571749"/>
           <a:chOff x="11476276" y="5373484"/>
           <a:chExt cx="2629773" cy="3920285"/>
         </a:xfrm>
@@ -13327,166 +13342,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="N3" sqref="N3:AN3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12" max="28" width="3.6640625" style="1"/>
-    <col min="29" max="29" width="7.33203125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6328125" style="1"/>
+    <col min="11" max="11" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12" max="28" width="3.6328125" style="1"/>
+    <col min="29" max="29" width="7.36328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="43">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="40">
         <v>45085</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -17988,160 +18003,160 @@
       <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="44">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="45">
         <v>45085</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -22514,11 +22529,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -22529,6 +22539,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -22548,154 +22563,154 @@
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="4.21875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6328125" style="1"/>
+    <col min="11" max="11" width="4.1796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27092,11 +27107,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -27107,6 +27117,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27122,164 +27137,166 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACB5239-8967-4E3E-8226-77E8FFF644C0}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="G86" zoomScale="76" workbookViewId="0">
-      <selection activeCell="AA86" sqref="AA86"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="4.44140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6328125" style="1"/>
+    <col min="11" max="11" width="4.453125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="44">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="45">
         <v>45085</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -28862,7 +28879,7 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
@@ -28908,7 +28925,7 @@
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
@@ -28996,7 +29013,7 @@
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
       <c r="W46" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
@@ -29042,7 +29059,7 @@
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
       <c r="W47" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X47" s="8"/>
       <c r="Y47" s="8"/>
@@ -29086,7 +29103,7 @@
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
       <c r="W48" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
@@ -29171,7 +29188,7 @@
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
       <c r="W50" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
@@ -29215,7 +29232,7 @@
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
       <c r="W51" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X51" s="8"/>
       <c r="Y51" s="8"/>
@@ -29257,7 +29274,7 @@
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
@@ -29281,7 +29298,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -29322,7 +29339,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -29342,7 +29359,7 @@
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
       <c r="W54" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
@@ -29366,7 +29383,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="E55" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -29386,7 +29403,7 @@
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
       <c r="W55" s="8" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
@@ -30388,7 +30405,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -30488,7 +30505,7 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -30764,7 +30781,7 @@
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -30822,7 +30839,7 @@
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
       <c r="L87" s="14" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
@@ -30872,7 +30889,7 @@
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
       <c r="L88" s="14" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
@@ -31787,11 +31804,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -31802,6 +31814,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -31817,168 +31834,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B3F5FD-FE1D-4B85-9B18-4236C93483B9}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="119" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView topLeftCell="A75" zoomScale="97" zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="S89" sqref="S89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
-    <col min="11" max="11" width="4.6640625" style="1" customWidth="1"/>
-    <col min="12" max="28" width="3.6640625" style="1"/>
-    <col min="29" max="29" width="7.33203125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6328125" style="1"/>
+    <col min="11" max="11" width="4.6328125" style="1" customWidth="1"/>
+    <col min="12" max="28" width="3.6328125" style="1"/>
+    <col min="29" max="29" width="7.36328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="43">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="40">
         <v>45085</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33588,7 +33605,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -33632,7 +33649,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -33676,7 +33693,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -33720,7 +33737,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -33762,7 +33779,7 @@
       <c r="B48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -33862,7 +33879,7 @@
       <c r="T50" s="8"/>
       <c r="U50" s="8"/>
       <c r="V50" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
@@ -33888,7 +33905,7 @@
       <c r="B51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -33907,7 +33924,7 @@
       <c r="U51" s="8"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
@@ -33974,7 +33991,7 @@
       <c r="B53" s="6"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -34225,7 +34242,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -34268,7 +34285,7 @@
       <c r="B60" s="6"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -34309,7 +34326,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -34352,7 +34369,7 @@
       <c r="B62" s="6"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -34393,7 +34410,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="E63" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -34436,7 +34453,7 @@
       <c r="B64" s="6"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -34477,7 +34494,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="E65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -34520,7 +34537,7 @@
       <c r="B66" s="6"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -34561,7 +34578,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="E67" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -34604,7 +34621,7 @@
       <c r="B68" s="6"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -34645,7 +34662,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="E69" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -34688,7 +34705,7 @@
       <c r="B70" s="6"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -34729,7 +34746,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="E71" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -34774,7 +34791,7 @@
       <c r="D72" s="8"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -35248,7 +35265,7 @@
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -35304,7 +35321,7 @@
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -35356,13 +35373,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -35420,7 +35437,7 @@
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
@@ -35476,7 +35493,7 @@
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
@@ -35526,13 +35543,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
@@ -35576,13 +35593,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
@@ -36511,11 +36528,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -36526,6 +36538,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36545,152 +36562,152 @@
       <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -38253,7 +38270,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -38339,7 +38356,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -38383,7 +38400,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -38427,7 +38444,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -38469,7 +38486,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="E48" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -38511,7 +38528,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="E49" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -39802,13 +39819,13 @@
         <v>2</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
@@ -39854,13 +39871,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
@@ -39906,13 +39923,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
@@ -39956,13 +39973,13 @@
         <v>5</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -40008,13 +40025,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
@@ -40058,19 +40075,19 @@
         <v>7</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -41111,11 +41128,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -41126,6 +41138,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41145,154 +41162,154 @@
       <selection activeCell="Q54" sqref="Q54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="42" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="42"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="37"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="38" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="38"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38" t="s">
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="39" t="s">
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="43"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="30" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="34"/>
-      <c r="AJ3" s="34"/>
-      <c r="AK3" s="34"/>
-      <c r="AL3" s="34"/>
-      <c r="AM3" s="34"/>
-      <c r="AN3" s="35"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="36"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -42943,7 +42960,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -43028,7 +43045,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -43070,7 +43087,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="E48" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -43151,7 +43168,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="E50" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -43193,7 +43210,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="E51" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -43274,7 +43291,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -43316,7 +43333,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="E54" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -43398,7 +43415,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="E56" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -43518,7 +43535,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="E59" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -43560,7 +43577,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="E60" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -43602,7 +43619,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -43644,7 +43661,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="E62" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -43725,7 +43742,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="E64" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -44378,7 +44395,7 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
@@ -44415,20 +44432,20 @@
       <c r="C80" s="13">
         <v>2</v>
       </c>
-      <c r="D80" s="45" t="s">
-        <v>185</v>
+      <c r="D80" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
@@ -44448,8 +44465,8 @@
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="45" t="s">
-        <v>185</v>
+      <c r="AA80" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -44471,20 +44488,20 @@
       <c r="C81" s="13">
         <v>3</v>
       </c>
-      <c r="D81" s="45" t="s">
-        <v>184</v>
+      <c r="D81" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
@@ -44504,8 +44521,8 @@
       <c r="X81" s="15"/>
       <c r="Y81" s="15"/>
       <c r="Z81" s="17"/>
-      <c r="AA81" s="45" t="s">
-        <v>184</v>
+      <c r="AA81" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="AB81" s="15"/>
       <c r="AC81" s="17"/>
@@ -44528,19 +44545,19 @@
         <v>4</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -44579,14 +44596,14 @@
       <c r="C83" s="13">
         <v>5</v>
       </c>
-      <c r="D83" s="45" t="s">
-        <v>180</v>
+      <c r="D83" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
@@ -44610,8 +44627,8 @@
       <c r="X83" s="15"/>
       <c r="Y83" s="15"/>
       <c r="Z83" s="17"/>
-      <c r="AA83" s="45" t="s">
-        <v>180</v>
+      <c r="AA83" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="AB83" s="15"/>
       <c r="AC83" s="17"/>
@@ -44634,7 +44651,7 @@
         <v>6</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
@@ -45729,11 +45746,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -45744,6 +45756,11 @@
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AF1:AG1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
